--- a/resource/test.xlsx
+++ b/resource/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\54967\Desktop\GenshinPlay\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D67E4B-9D60-4E38-86C0-A42764EE4015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9984539-1C66-49A8-BD16-1DABA3720CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="300" windowWidth="19200" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6490" yWindow="390" windowWidth="19200" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +88,10 @@
   </si>
   <si>
     <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D345"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -449,16 +449,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="70" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -469,26 +469,26 @@
         <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
         <v>0.5</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4">
         <v>0.5</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="4">
         <v>0.5</v>
@@ -515,15 +515,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
@@ -531,10 +531,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
